--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -666,7 +666,7 @@
         <v>39.5</v>
       </c>
       <c r="H2">
-        <v>0.3607142857142858</v>
+        <v>0.36</v>
       </c>
       <c r="I2">
         <v>51.19</v>
@@ -770,7 +770,7 @@
         <v>307.62</v>
       </c>
       <c r="H3">
-        <v>0.3607142857142858</v>
+        <v>0.36</v>
       </c>
       <c r="I3">
         <v>331.81</v>
@@ -874,7 +874,7 @@
         <v>258.28</v>
       </c>
       <c r="H4">
-        <v>0.3607142857142858</v>
+        <v>0.36</v>
       </c>
       <c r="I4">
         <v>288.74</v>
@@ -978,7 +978,7 @@
         <v>291.86</v>
       </c>
       <c r="H5">
-        <v>0.3607142857142858</v>
+        <v>0.36</v>
       </c>
       <c r="I5">
         <v>337.28</v>
@@ -1082,7 +1082,7 @@
         <v>378.71</v>
       </c>
       <c r="H6">
-        <v>0.3607142857142858</v>
+        <v>0.36</v>
       </c>
       <c r="I6">
         <v>430.33</v>
@@ -1186,7 +1186,7 @@
         <v>546.7</v>
       </c>
       <c r="H7">
-        <v>0.3607142857142858</v>
+        <v>0.36</v>
       </c>
       <c r="I7">
         <v>546.7</v>
@@ -1228,7 +1228,7 @@
         <v>51.05</v>
       </c>
       <c r="V7">
-        <v>32.84153846153846</v>
+        <v>32.84</v>
       </c>
       <c r="W7">
         <v>640.7</v>
@@ -1320,7 +1320,7 @@
         <v>161.79</v>
       </c>
       <c r="R8">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S8">
         <v>459.07</v>
@@ -1332,7 +1332,7 @@
         <v>56.95</v>
       </c>
       <c r="V8">
-        <v>32.84153846153846</v>
+        <v>32.84</v>
       </c>
       <c r="W8">
         <v>995.58</v>
@@ -1406,7 +1406,7 @@
         <v>55.52</v>
       </c>
       <c r="L9">
-        <v>694.2189473684211</v>
+        <v>694.22</v>
       </c>
       <c r="M9">
         <v>217.08</v>
@@ -1424,7 +1424,7 @@
         <v>116.21</v>
       </c>
       <c r="R9">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S9">
         <v>411.48</v>
@@ -1436,7 +1436,7 @@
         <v>118.04</v>
       </c>
       <c r="V9">
-        <v>32.84153846153846</v>
+        <v>32.84</v>
       </c>
       <c r="W9">
         <v>1029.49</v>
@@ -1540,7 +1540,7 @@
         <v>132.5</v>
       </c>
       <c r="V10">
-        <v>32.84153846153846</v>
+        <v>32.84</v>
       </c>
       <c r="W10">
         <v>1015.43</v>
@@ -1632,7 +1632,7 @@
         <v>112.13</v>
       </c>
       <c r="R11">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S11">
         <v>354.7</v>
@@ -1644,7 +1644,7 @@
         <v>225.6</v>
       </c>
       <c r="V11">
-        <v>32.84153846153846</v>
+        <v>32.84</v>
       </c>
       <c r="W11">
         <v>1095.01</v>
@@ -1703,7 +1703,7 @@
         <v>-102.44</v>
       </c>
       <c r="G12">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H12">
         <v>0.5600000000000001</v>
@@ -1736,7 +1736,7 @@
         <v>84.58</v>
       </c>
       <c r="R12">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S12">
         <v>322.52</v>
@@ -1748,7 +1748,7 @@
         <v>269.66</v>
       </c>
       <c r="V12">
-        <v>32.84153846153846</v>
+        <v>32.84</v>
       </c>
       <c r="W12">
         <v>855.5599999999999</v>
@@ -1807,7 +1807,7 @@
         <v>-181.55</v>
       </c>
       <c r="G13">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H13">
         <v>0.17</v>
@@ -1840,7 +1840,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="R13">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S13">
         <v>308.26</v>
@@ -1852,7 +1852,7 @@
         <v>310.01</v>
       </c>
       <c r="V13">
-        <v>32.84153846153846</v>
+        <v>32.84</v>
       </c>
       <c r="W13">
         <v>1143.35</v>
@@ -1911,7 +1911,7 @@
         <v>-493.84</v>
       </c>
       <c r="G14">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H14">
         <v>0.13</v>
@@ -1971,7 +1971,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AA14">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB14">
         <v>101.22</v>
@@ -2015,7 +2015,7 @@
         <v>-570.0700000000001</v>
       </c>
       <c r="G15">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H15">
         <v>0.07000000000000001</v>
@@ -2045,7 +2045,7 @@
         <v>10.88</v>
       </c>
       <c r="Q15">
-        <v>179.3146666666667</v>
+        <v>179.31</v>
       </c>
       <c r="R15">
         <v>50.42</v>
@@ -2066,7 +2066,7 @@
         <v>553.8</v>
       </c>
       <c r="X15">
-        <v>1.332307692307692</v>
+        <v>1.33</v>
       </c>
       <c r="Y15">
         <v>101.9</v>
@@ -2075,7 +2075,7 @@
         <v>0.3</v>
       </c>
       <c r="AA15">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB15">
         <v>104.47</v>
@@ -2119,7 +2119,7 @@
         <v>-585.36</v>
       </c>
       <c r="G16">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H16">
         <v>0.19</v>
@@ -2170,7 +2170,7 @@
         <v>427.11</v>
       </c>
       <c r="X16">
-        <v>1.332307692307692</v>
+        <v>1.33</v>
       </c>
       <c r="Y16">
         <v>107.02</v>
@@ -2179,7 +2179,7 @@
         <v>0.39</v>
       </c>
       <c r="AA16">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB16">
         <v>109.63</v>
@@ -2223,7 +2223,7 @@
         <v>-621.86</v>
       </c>
       <c r="G17">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H17">
         <v>0.34</v>
@@ -2274,7 +2274,7 @@
         <v>387.79</v>
       </c>
       <c r="X17">
-        <v>1.332307692307692</v>
+        <v>1.33</v>
       </c>
       <c r="Y17">
         <v>115.91</v>
@@ -2283,7 +2283,7 @@
         <v>0.17</v>
       </c>
       <c r="AA17">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB17">
         <v>118.4</v>
@@ -2295,10 +2295,10 @@
         <v>26.8</v>
       </c>
       <c r="AE17">
-        <v>15.018</v>
+        <v>15.02</v>
       </c>
       <c r="AF17">
-        <v>66.79266666666666</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AG17">
         <v>11.37</v>
@@ -2327,7 +2327,7 @@
         <v>-670.25</v>
       </c>
       <c r="G18">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H18">
         <v>0.3</v>
@@ -2357,10 +2357,10 @@
         <v>0.28</v>
       </c>
       <c r="Q18">
-        <v>179.3146666666667</v>
+        <v>179.31</v>
       </c>
       <c r="R18">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S18">
         <v>0.28</v>
@@ -2378,7 +2378,7 @@
         <v>356.09</v>
       </c>
       <c r="X18">
-        <v>1.332307692307692</v>
+        <v>1.33</v>
       </c>
       <c r="Y18">
         <v>98.81</v>
@@ -2387,7 +2387,7 @@
         <v>0.19</v>
       </c>
       <c r="AA18">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB18">
         <v>101</v>
@@ -2399,10 +2399,10 @@
         <v>26.8</v>
       </c>
       <c r="AE18">
-        <v>15.018</v>
+        <v>15.02</v>
       </c>
       <c r="AF18">
-        <v>66.79266666666666</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AG18">
         <v>11.37</v>
@@ -2431,7 +2431,7 @@
         <v>-685.59</v>
       </c>
       <c r="G19">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H19">
         <v>0.11</v>
@@ -2461,10 +2461,10 @@
         <v>0.2</v>
       </c>
       <c r="Q19">
-        <v>179.3146666666667</v>
+        <v>179.31</v>
       </c>
       <c r="R19">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S19">
         <v>0.2</v>
@@ -2482,7 +2482,7 @@
         <v>295.05</v>
       </c>
       <c r="X19">
-        <v>1.332307692307692</v>
+        <v>1.33</v>
       </c>
       <c r="Y19">
         <v>81.56999999999999</v>
@@ -2491,7 +2491,7 @@
         <v>0.16</v>
       </c>
       <c r="AA19">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB19">
         <v>97.02</v>
@@ -2503,10 +2503,10 @@
         <v>26.8</v>
       </c>
       <c r="AE19">
-        <v>15.018</v>
+        <v>15.02</v>
       </c>
       <c r="AF19">
-        <v>66.79266666666666</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AG19">
         <v>11.37</v>
@@ -2535,7 +2535,7 @@
         <v>-773.17</v>
       </c>
       <c r="G20">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H20">
         <v>0.08</v>
@@ -2565,10 +2565,10 @@
         <v>0.14</v>
       </c>
       <c r="Q20">
-        <v>179.3146666666667</v>
+        <v>179.31</v>
       </c>
       <c r="R20">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S20">
         <v>0.14</v>
@@ -2586,7 +2586,7 @@
         <v>41.38</v>
       </c>
       <c r="X20">
-        <v>1.332307692307692</v>
+        <v>1.33</v>
       </c>
       <c r="Y20">
         <v>65.13</v>
@@ -2595,7 +2595,7 @@
         <v>0.11</v>
       </c>
       <c r="AA20">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB20">
         <v>65.29000000000001</v>
@@ -2607,10 +2607,10 @@
         <v>25.97</v>
       </c>
       <c r="AE20">
-        <v>15.018</v>
+        <v>15.02</v>
       </c>
       <c r="AF20">
-        <v>66.79266666666666</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AG20">
         <v>11.37</v>
@@ -2639,7 +2639,7 @@
         <v>-791.84</v>
       </c>
       <c r="G21">
-        <v>196.117</v>
+        <v>196.12</v>
       </c>
       <c r="H21">
         <v>0.09</v>
@@ -2669,10 +2669,10 @@
         <v>0.11</v>
       </c>
       <c r="Q21">
-        <v>179.3146666666667</v>
+        <v>179.31</v>
       </c>
       <c r="R21">
-        <v>121.2654545454545</v>
+        <v>121.27</v>
       </c>
       <c r="S21">
         <v>0.11</v>
@@ -2690,7 +2690,7 @@
         <v>41.29</v>
       </c>
       <c r="X21">
-        <v>1.332307692307692</v>
+        <v>1.33</v>
       </c>
       <c r="Y21">
         <v>48.57</v>
@@ -2699,7 +2699,7 @@
         <v>0.11</v>
       </c>
       <c r="AA21">
-        <v>112.0091666666667</v>
+        <v>112.01</v>
       </c>
       <c r="AB21">
         <v>48.73</v>
@@ -2711,10 +2711,10 @@
         <v>29.66</v>
       </c>
       <c r="AE21">
-        <v>15.018</v>
+        <v>15.02</v>
       </c>
       <c r="AF21">
-        <v>66.79266666666666</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="AG21">
         <v>11.37</v>
